--- a/2010-2014 Child and Family Well-being updated CSA.xlsx
+++ b/2010-2014 Child and Family Well-being updated CSA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccareed/Desktop/School/Sophomore Spring/Business Analytics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vesnatran/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59FCD44-2AD0-A844-A41C-06225C90549A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FB0CCD-5059-1843-A65E-84C5EA3415B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="1040" windowWidth="27240" windowHeight="15600" activeTab="9" xr2:uid="{BD9C6822-402D-B747-8A8D-90E9FF04250C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="1" xr2:uid="{BD9C6822-402D-B747-8A8D-90E9FF04250C}"/>
   </bookViews>
   <sheets>
     <sheet name="Children_and_Family_Health_and_" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="2012 MLR_2" sheetId="8" r:id="rId8"/>
     <sheet name="2013 MLR_2" sheetId="9" r:id="rId9"/>
     <sheet name="2014 MLR_2" sheetId="10" r:id="rId10"/>
+    <sheet name="2011 SLR" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="169">
   <si>
     <t>CSA2010</t>
   </si>
@@ -535,6 +536,21 @@
   <si>
     <t>SUMMARY OUTPUT (y= infant mortality rate)</t>
   </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
+  <si>
+    <t>%delivered at term</t>
+  </si>
+  <si>
+    <t>%born with satisfactory weight</t>
+  </si>
+  <si>
+    <t>%recieved prenatal care</t>
+  </si>
 </sst>
 </file>
 
@@ -827,22 +843,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -891,6 +891,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -917,14 +933,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5006037A-01B5-9D4E-81DA-A49F83B8D0C1}" name="Table3" displayName="Table3" ref="B1:F35" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5006037A-01B5-9D4E-81DA-A49F83B8D0C1}" name="Table3" displayName="Table3" ref="B1:F35" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B1:F35" xr:uid="{1521F43D-12DF-1541-89DC-E0626137D480}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{56169D3C-3799-5440-8AFF-5F679EA0B569}" name="Teen Birth Rate 2010" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{C3D2CE24-BC77-F34A-9A1C-20B6985E0949}" name="Teen Birth Rate 2011" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{C5C2C92B-3123-994A-A1AE-78D2A9F6F260}" name="Teen Birth Rate 2012" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{90C1AB97-8E0B-724F-B3F4-95E194655B1C}" name="Teen Birth Rate 2013" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{7A9FA6FA-466B-3244-B12A-ACD6E48CC321}" name="Teen Birth Rate 2014" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{56169D3C-3799-5440-8AFF-5F679EA0B569}" name="Teen Birth Rate 2010" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{C3D2CE24-BC77-F34A-9A1C-20B6985E0949}" name="Teen Birth Rate 2011" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{C5C2C92B-3123-994A-A1AE-78D2A9F6F260}" name="Teen Birth Rate 2012" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{90C1AB97-8E0B-724F-B3F4-95E194655B1C}" name="Teen Birth Rate 2013" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{7A9FA6FA-466B-3244-B12A-ACD6E48CC321}" name="Teen Birth Rate 2014" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1297,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E11B139-CF14-6C4B-90DF-A7CFC2D1A503}">
   <dimension ref="A1:BU35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ35" sqref="AJ2:AM35"/>
+    <sheetView topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="AD38" sqref="AD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9023,7 +9039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC2BA1D-6126-484A-84DD-903E022AA30D}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -9498,11 +9514,1659 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04D1396-AD3A-F949-AA29-404CB885F1EF}">
+  <dimension ref="A1:AR35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AM26" sqref="AM26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="A1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="17" thickBot="1">
+      <c r="A2">
+        <v>13.7</v>
+      </c>
+      <c r="B2" s="11">
+        <v>42.1</v>
+      </c>
+      <c r="L2">
+        <v>13.7</v>
+      </c>
+      <c r="M2">
+        <v>86.3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>164</v>
+      </c>
+      <c r="W2">
+        <v>13.7</v>
+      </c>
+      <c r="X2">
+        <v>85.7</v>
+      </c>
+      <c r="AH2">
+        <v>13.7</v>
+      </c>
+      <c r="AI2">
+        <v>61.6</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="17" thickBot="1">
+      <c r="A3">
+        <v>15.2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>60.5</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="L3">
+        <v>15.2</v>
+      </c>
+      <c r="M3">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="W3">
+        <v>15.2</v>
+      </c>
+      <c r="X3">
+        <v>79</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z3" s="16"/>
+      <c r="AH3">
+        <v>15.2</v>
+      </c>
+      <c r="AI3">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4">
+        <v>11.1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>84.4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.24175220917842821</v>
+      </c>
+      <c r="L4">
+        <v>11.1</v>
+      </c>
+      <c r="M4">
+        <v>89.3</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="O4" s="16"/>
+      <c r="W4">
+        <v>11.1</v>
+      </c>
+      <c r="X4">
+        <v>87.7</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>0.51206214536304973</v>
+      </c>
+      <c r="AH4">
+        <v>11.1</v>
+      </c>
+      <c r="AI4">
+        <v>58.2</v>
+      </c>
+      <c r="AJ4" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK4" s="16"/>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11">
+        <v>48.9</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="13">
+        <v>5.8444130642650506E-2</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>89.2</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0.52143023944671163</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>90</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>0.26220764071380909</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>50.8</v>
+      </c>
+      <c r="AJ5" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK5" s="13">
+        <v>0.24604391463432285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6">
+        <v>21.5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>61.7</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2.9020509725233332E-2</v>
+      </c>
+      <c r="L6">
+        <v>21.5</v>
+      </c>
+      <c r="M6">
+        <v>85.6</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.27188949460945505</v>
+      </c>
+      <c r="W6">
+        <v>21.5</v>
+      </c>
+      <c r="X6">
+        <v>88.1</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>0.23915162948611562</v>
+      </c>
+      <c r="AH6">
+        <v>21.5</v>
+      </c>
+      <c r="AI6">
+        <v>56.9</v>
+      </c>
+      <c r="AJ6" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK6" s="13">
+        <v>6.0537607928581948E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7">
+        <v>8.5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>49.3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="13">
+        <v>4.9254222255981883</v>
+      </c>
+      <c r="L7">
+        <v>8.5</v>
+      </c>
+      <c r="M7">
+        <v>85.3</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0.24913604131600053</v>
+      </c>
+      <c r="W7">
+        <v>8.5</v>
+      </c>
+      <c r="X7">
+        <v>84.5</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>4.3600100961365946</v>
+      </c>
+      <c r="AH7">
+        <v>8.5</v>
+      </c>
+      <c r="AI7">
+        <v>58.9</v>
+      </c>
+      <c r="AJ7" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK7" s="13">
+        <v>3.1179408176350135E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="17" thickBot="1">
+      <c r="A8">
+        <v>12.9</v>
+      </c>
+      <c r="B8" s="11">
+        <v>43.5</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="14">
+        <v>34</v>
+      </c>
+      <c r="L8">
+        <v>12.9</v>
+      </c>
+      <c r="M8">
+        <v>80.7</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O8" s="13">
+        <v>4.3313079932793288</v>
+      </c>
+      <c r="W8">
+        <v>12.9</v>
+      </c>
+      <c r="X8">
+        <v>82.5</v>
+      </c>
+      <c r="Y8" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>34</v>
+      </c>
+      <c r="AH8">
+        <v>12.9</v>
+      </c>
+      <c r="AI8">
+        <v>70.2</v>
+      </c>
+      <c r="AJ8" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK8" s="13">
+        <v>4.919943529196221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="17" thickBot="1">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44.4</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>96.2</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O9" s="14">
+        <v>34</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>94</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>69.2</v>
+      </c>
+      <c r="AJ9" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK9" s="14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="17" thickBot="1">
+      <c r="A10">
+        <v>6.8</v>
+      </c>
+      <c r="B10" s="11">
+        <v>30.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10">
+        <v>6.8</v>
+      </c>
+      <c r="M10">
+        <v>89.4</v>
+      </c>
+      <c r="W10">
+        <v>6.8</v>
+      </c>
+      <c r="X10">
+        <v>90.4</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH10">
+        <v>6.8</v>
+      </c>
+      <c r="AI10">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="17" thickBot="1">
+      <c r="A11">
+        <v>15.1</v>
+      </c>
+      <c r="B11" s="11">
+        <v>68.3</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11">
+        <v>15.1</v>
+      </c>
+      <c r="M11">
+        <v>87.1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>142</v>
+      </c>
+      <c r="W11">
+        <v>15.1</v>
+      </c>
+      <c r="X11">
+        <v>87.1</v>
+      </c>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA11" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB11" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC11" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD11" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH11">
+        <v>15.1</v>
+      </c>
+      <c r="AI11">
+        <v>57.1</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12">
+        <v>15.9</v>
+      </c>
+      <c r="B12" s="11">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13">
+        <v>48.187202904315541</v>
+      </c>
+      <c r="F12" s="13">
+        <v>48.187202904315541</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1.9862997421930075</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.16837299480431375</v>
+      </c>
+      <c r="L12">
+        <v>15.9</v>
+      </c>
+      <c r="M12">
+        <v>85.9</v>
+      </c>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="S12" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="W12">
+        <v>15.9</v>
+      </c>
+      <c r="X12">
+        <v>87.5</v>
+      </c>
+      <c r="Y12" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>216.19027688842993</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>216.19027688842993</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>11.3726367550889</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>1.9628277124707251E-3</v>
+      </c>
+      <c r="AH12">
+        <v>15.9</v>
+      </c>
+      <c r="AI12">
+        <v>57.8</v>
+      </c>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL12" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM12" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN12" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO12" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13">
+        <v>20.5</v>
+      </c>
+      <c r="B13" s="11">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="13">
+        <v>32</v>
+      </c>
+      <c r="E13" s="13">
+        <v>776.31309121333163</v>
+      </c>
+      <c r="F13" s="13">
+        <v>24.259784100416613</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="L13">
+        <v>20.5</v>
+      </c>
+      <c r="M13">
+        <v>85.3</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" s="13">
+        <v>1</v>
+      </c>
+      <c r="P13" s="13">
+        <v>224.17296827299413</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>224.17296827299413</v>
+      </c>
+      <c r="R13" s="13">
+        <v>11.949372743682353</v>
+      </c>
+      <c r="S13" s="13">
+        <v>1.5650004079692257E-3</v>
+      </c>
+      <c r="W13">
+        <v>20.5</v>
+      </c>
+      <c r="X13">
+        <v>82.4</v>
+      </c>
+      <c r="Y13" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>32</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>608.31001722921724</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>19.009688038413039</v>
+      </c>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AH13">
+        <v>20.5</v>
+      </c>
+      <c r="AI13">
+        <v>64</v>
+      </c>
+      <c r="AJ13" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK13" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="13">
+        <v>49.913275542294627</v>
+      </c>
+      <c r="AM13" s="13">
+        <v>49.913275542294627</v>
+      </c>
+      <c r="AN13" s="13">
+        <v>2.0620340633788308</v>
+      </c>
+      <c r="AO13" s="13">
+        <v>0.16071283345758972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="17" thickBot="1">
+      <c r="A14">
+        <v>13.2</v>
+      </c>
+      <c r="B14" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="14">
+        <v>33</v>
+      </c>
+      <c r="E14" s="14">
+        <v>824.50029411764717</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="L14">
+        <v>13.2</v>
+      </c>
+      <c r="M14">
+        <v>86.2</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" s="13">
+        <v>32</v>
+      </c>
+      <c r="P14" s="13">
+        <v>600.32732584465305</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>18.760228932645408</v>
+      </c>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="W14">
+        <v>13.2</v>
+      </c>
+      <c r="X14">
+        <v>89.9</v>
+      </c>
+      <c r="Y14" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>33</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>824.50029411764717</v>
+      </c>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AH14">
+        <v>13.2</v>
+      </c>
+      <c r="AI14">
+        <v>71.7</v>
+      </c>
+      <c r="AJ14" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>32</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>774.58701857535254</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>24.205844330479767</v>
+      </c>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+    </row>
+    <row r="15" spans="1:41" ht="17" thickBot="1">
+      <c r="A15">
+        <v>15.5</v>
+      </c>
+      <c r="B15" s="11">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="L15">
+        <v>15.5</v>
+      </c>
+      <c r="M15">
+        <v>88</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" s="14">
+        <v>33</v>
+      </c>
+      <c r="P15" s="14">
+        <v>824.50029411764717</v>
+      </c>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="W15">
+        <v>15.5</v>
+      </c>
+      <c r="X15">
+        <v>89.2</v>
+      </c>
+      <c r="AH15">
+        <v>15.5</v>
+      </c>
+      <c r="AI15">
+        <v>57.8</v>
+      </c>
+      <c r="AJ15" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK15" s="14">
+        <v>33</v>
+      </c>
+      <c r="AL15" s="14">
+        <v>824.50029411764717</v>
+      </c>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+    </row>
+    <row r="16" spans="1:41" ht="17" thickBot="1">
+      <c r="A16">
+        <v>6.3</v>
+      </c>
+      <c r="B16" s="11">
+        <v>45.5</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16">
+        <v>6.3</v>
+      </c>
+      <c r="M16">
+        <v>87.2</v>
+      </c>
+      <c r="W16">
+        <v>6.3</v>
+      </c>
+      <c r="X16">
+        <v>89.7</v>
+      </c>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA16" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB16" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC16" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD16" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE16" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF16" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG16" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH16">
+        <v>6.3</v>
+      </c>
+      <c r="AI16">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44">
+      <c r="A17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B17" s="11">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="13">
+        <v>8.9524429354205104</v>
+      </c>
+      <c r="E17" s="13">
+        <v>2.3467891060215305</v>
+      </c>
+      <c r="F17" s="13">
+        <v>3.8147624396456425</v>
+      </c>
+      <c r="G17" s="13">
+        <v>5.8759225775138952E-4</v>
+      </c>
+      <c r="H17" s="13">
+        <v>4.1721899552963322</v>
+      </c>
+      <c r="I17" s="13">
+        <v>13.732695915544689</v>
+      </c>
+      <c r="J17" s="13">
+        <v>4.1721899552963322</v>
+      </c>
+      <c r="K17" s="13">
+        <v>13.732695915544689</v>
+      </c>
+      <c r="L17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M17">
+        <v>87.9</v>
+      </c>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="S17" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="W17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X17">
+        <v>89.2</v>
+      </c>
+      <c r="Y17" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>73.14309759021917</v>
+      </c>
+      <c r="AA17" s="13">
+        <v>18.134879132807757</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>4.0332828829223466</v>
+      </c>
+      <c r="AC17" s="13">
+        <v>3.1893578972577561E-4</v>
+      </c>
+      <c r="AD17" s="13">
+        <v>36.203557604984248</v>
+      </c>
+      <c r="AE17" s="13">
+        <v>110.0826375754541</v>
+      </c>
+      <c r="AF17" s="13">
+        <v>36.203557604984248</v>
+      </c>
+      <c r="AG17" s="13">
+        <v>110.0826375754541</v>
+      </c>
+      <c r="AH17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AI17">
+        <v>58.6</v>
+      </c>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL17" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM17" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN17" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO17" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP17" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ17" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR17" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" ht="17" thickBot="1">
+      <c r="A18">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44.8</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="14">
+        <v>5.2685015665211735E-2</v>
+      </c>
+      <c r="E18" s="14">
+        <v>3.7382188268659029E-2</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1.4093614661232257</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0.16837299480431331</v>
+      </c>
+      <c r="H18" s="14">
+        <v>-2.3460010070722875E-2</v>
+      </c>
+      <c r="I18" s="14">
+        <v>0.12883004140114634</v>
+      </c>
+      <c r="J18" s="14">
+        <v>-2.3460010070722875E-2</v>
+      </c>
+      <c r="K18" s="14">
+        <v>0.12883004140114634</v>
+      </c>
+      <c r="L18">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M18">
+        <v>89.5</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18" s="13">
+        <v>74.545235762800445</v>
+      </c>
+      <c r="P18" s="13">
+        <v>18.097652064176348</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>4.1190556376293728</v>
+      </c>
+      <c r="R18" s="13">
+        <v>2.5036660604225568E-4</v>
+      </c>
+      <c r="S18" s="13">
+        <v>37.681524834940113</v>
+      </c>
+      <c r="T18" s="13">
+        <v>111.40894669066077</v>
+      </c>
+      <c r="U18" s="13">
+        <v>37.681524834940113</v>
+      </c>
+      <c r="V18" s="13">
+        <v>111.40894669066077</v>
+      </c>
+      <c r="W18">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="X18">
+        <v>94.2</v>
+      </c>
+      <c r="Y18" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z18" s="14">
+        <v>-0.69644507997299843</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>0.20651722974522674</v>
+      </c>
+      <c r="AB18" s="14">
+        <v>-3.3723340218740052</v>
+      </c>
+      <c r="AC18" s="14">
+        <v>1.9628277124707216E-3</v>
+      </c>
+      <c r="AD18" s="14">
+        <v>-1.1171069112400609</v>
+      </c>
+      <c r="AE18" s="14">
+        <v>-0.2757832487059359</v>
+      </c>
+      <c r="AF18" s="14">
+        <v>-1.1171069112400609</v>
+      </c>
+      <c r="AG18" s="14">
+        <v>-0.2757832487059359</v>
+      </c>
+      <c r="AH18">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AI18">
+        <v>69.8</v>
+      </c>
+      <c r="AJ18" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>22.059419966143736</v>
+      </c>
+      <c r="AL18" s="13">
+        <v>7.0294688199442179</v>
+      </c>
+      <c r="AM18" s="13">
+        <v>3.1381346914230694</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>3.639049763290146E-3</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>7.7408605399862278</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>36.377979392301242</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>7.7408605399862278</v>
+      </c>
+      <c r="AR18" s="13">
+        <v>36.377979392301242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" ht="17" thickBot="1">
+      <c r="A19">
+        <v>7.1</v>
+      </c>
+      <c r="B19" s="11">
+        <v>30</v>
+      </c>
+      <c r="L19">
+        <v>7.1</v>
+      </c>
+      <c r="M19">
+        <v>90.8</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" s="14">
+        <v>-0.72007793451759017</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0.20830847940010869</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>-3.4567864764376677</v>
+      </c>
+      <c r="R19" s="14">
+        <v>1.5650004079692257E-3</v>
+      </c>
+      <c r="S19" s="14">
+        <v>-1.1443884219331433</v>
+      </c>
+      <c r="T19" s="14">
+        <v>-0.29576744710203717</v>
+      </c>
+      <c r="U19" s="14">
+        <v>-1.1443884219331433</v>
+      </c>
+      <c r="V19" s="14">
+        <v>-0.29576744710203717</v>
+      </c>
+      <c r="W19">
+        <v>7.1</v>
+      </c>
+      <c r="X19">
+        <v>93.5</v>
+      </c>
+      <c r="AH19">
+        <v>7.1</v>
+      </c>
+      <c r="AI19">
+        <v>77.7</v>
+      </c>
+      <c r="AJ19" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK19" s="14">
+        <v>-0.16990987824708878</v>
+      </c>
+      <c r="AL19" s="14">
+        <v>0.11832341921362093</v>
+      </c>
+      <c r="AM19" s="14">
+        <v>-1.4359784341621649</v>
+      </c>
+      <c r="AN19" s="14">
+        <v>0.16071283345759052</v>
+      </c>
+      <c r="AO19" s="14">
+        <v>-0.41092679615552086</v>
+      </c>
+      <c r="AP19" s="14">
+        <v>7.1107039661343269E-2</v>
+      </c>
+      <c r="AQ19" s="14">
+        <v>-0.41092679615552086</v>
+      </c>
+      <c r="AR19" s="14">
+        <v>7.1107039661343269E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" s="11">
+        <v>86.1</v>
+      </c>
+      <c r="L20">
+        <v>14</v>
+      </c>
+      <c r="M20">
+        <v>85.6</v>
+      </c>
+      <c r="W20">
+        <v>14</v>
+      </c>
+      <c r="X20">
+        <v>83.1</v>
+      </c>
+      <c r="AH20">
+        <v>14</v>
+      </c>
+      <c r="AI20">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44">
+      <c r="A21">
+        <v>11.5</v>
+      </c>
+      <c r="B21" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="L21">
+        <v>11.5</v>
+      </c>
+      <c r="M21">
+        <v>86.3</v>
+      </c>
+      <c r="W21">
+        <v>11.5</v>
+      </c>
+      <c r="X21">
+        <v>90.4</v>
+      </c>
+      <c r="AH21">
+        <v>11.5</v>
+      </c>
+      <c r="AI21">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44">
+      <c r="A22">
+        <v>10.6</v>
+      </c>
+      <c r="B22" s="11">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="L22">
+        <v>10.6</v>
+      </c>
+      <c r="M22">
+        <v>81.8</v>
+      </c>
+      <c r="W22">
+        <v>10.6</v>
+      </c>
+      <c r="X22">
+        <v>85.5</v>
+      </c>
+      <c r="AH22">
+        <v>10.6</v>
+      </c>
+      <c r="AI22">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" s="11">
+        <v>47.5</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>90.7</v>
+      </c>
+      <c r="W23">
+        <v>10</v>
+      </c>
+      <c r="X23">
+        <v>87.9</v>
+      </c>
+      <c r="AH23">
+        <v>10</v>
+      </c>
+      <c r="AI23">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44">
+      <c r="A24">
+        <v>7.9</v>
+      </c>
+      <c r="B24" s="11">
+        <v>82.1</v>
+      </c>
+      <c r="L24">
+        <v>7.9</v>
+      </c>
+      <c r="M24">
+        <v>87.8</v>
+      </c>
+      <c r="W24">
+        <v>7.9</v>
+      </c>
+      <c r="X24">
+        <v>88.8</v>
+      </c>
+      <c r="AH24">
+        <v>7.9</v>
+      </c>
+      <c r="AI24">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44">
+      <c r="A25">
+        <v>12.8</v>
+      </c>
+      <c r="B25" s="11">
+        <v>61.8</v>
+      </c>
+      <c r="L25">
+        <v>12.8</v>
+      </c>
+      <c r="M25">
+        <v>82.9</v>
+      </c>
+      <c r="W25">
+        <v>12.8</v>
+      </c>
+      <c r="X25">
+        <v>87.1</v>
+      </c>
+      <c r="AH25">
+        <v>12.8</v>
+      </c>
+      <c r="AI25">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44">
+      <c r="A26">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="B26" s="11">
+        <v>46.6</v>
+      </c>
+      <c r="L26">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M26">
+        <v>83.1</v>
+      </c>
+      <c r="W26">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="X26">
+        <v>84.4</v>
+      </c>
+      <c r="AH26">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AI26">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44">
+      <c r="A27">
+        <v>14.1</v>
+      </c>
+      <c r="B27" s="11">
+        <v>89.3</v>
+      </c>
+      <c r="L27">
+        <v>14.1</v>
+      </c>
+      <c r="M27">
+        <v>92.3</v>
+      </c>
+      <c r="W27">
+        <v>14.1</v>
+      </c>
+      <c r="X27">
+        <v>91</v>
+      </c>
+      <c r="AH27">
+        <v>14.1</v>
+      </c>
+      <c r="AI27">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44">
+      <c r="A28">
+        <v>16.8</v>
+      </c>
+      <c r="B28" s="11">
+        <v>61.9</v>
+      </c>
+      <c r="L28">
+        <v>16.8</v>
+      </c>
+      <c r="M28">
+        <v>82.1</v>
+      </c>
+      <c r="W28">
+        <v>16.8</v>
+      </c>
+      <c r="X28">
+        <v>85.4</v>
+      </c>
+      <c r="AH28">
+        <v>16.8</v>
+      </c>
+      <c r="AI28">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44">
+      <c r="A29">
+        <v>9.1</v>
+      </c>
+      <c r="B29" s="11">
+        <v>68</v>
+      </c>
+      <c r="L29">
+        <v>9.1</v>
+      </c>
+      <c r="M29">
+        <v>89.1</v>
+      </c>
+      <c r="W29">
+        <v>9.1</v>
+      </c>
+      <c r="X29">
+        <v>89.1</v>
+      </c>
+      <c r="AH29">
+        <v>9.1</v>
+      </c>
+      <c r="AI29">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44">
+      <c r="A30">
+        <v>14.4</v>
+      </c>
+      <c r="B30" s="11">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="L30">
+        <v>14.4</v>
+      </c>
+      <c r="M30">
+        <v>91.6</v>
+      </c>
+      <c r="W30">
+        <v>14.4</v>
+      </c>
+      <c r="X30">
+        <v>91.1</v>
+      </c>
+      <c r="AH30">
+        <v>14.4</v>
+      </c>
+      <c r="AI30">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44">
+      <c r="A31">
+        <v>14.2</v>
+      </c>
+      <c r="B31" s="11">
+        <v>75.8</v>
+      </c>
+      <c r="L31">
+        <v>14.2</v>
+      </c>
+      <c r="M31">
+        <v>85.5</v>
+      </c>
+      <c r="W31">
+        <v>14.2</v>
+      </c>
+      <c r="X31">
+        <v>86.1</v>
+      </c>
+      <c r="AH31">
+        <v>14.2</v>
+      </c>
+      <c r="AI31">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44">
+      <c r="A32">
+        <v>13.5</v>
+      </c>
+      <c r="B32" s="11">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="L32">
+        <v>13.5</v>
+      </c>
+      <c r="M32">
+        <v>89.2</v>
+      </c>
+      <c r="W32">
+        <v>13.5</v>
+      </c>
+      <c r="X32">
+        <v>92.8</v>
+      </c>
+      <c r="AH32">
+        <v>13.5</v>
+      </c>
+      <c r="AI32">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="A33">
+        <v>14.1</v>
+      </c>
+      <c r="B33" s="11">
+        <v>92.1</v>
+      </c>
+      <c r="L33">
+        <v>14.1</v>
+      </c>
+      <c r="M33">
+        <v>82.4</v>
+      </c>
+      <c r="W33">
+        <v>14.1</v>
+      </c>
+      <c r="X33">
+        <v>82.4</v>
+      </c>
+      <c r="AH33">
+        <v>14.1</v>
+      </c>
+      <c r="AI33">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="A34">
+        <v>13.9</v>
+      </c>
+      <c r="B34" s="11">
+        <v>64</v>
+      </c>
+      <c r="L34">
+        <v>13.9</v>
+      </c>
+      <c r="M34">
+        <v>89</v>
+      </c>
+      <c r="W34">
+        <v>13.9</v>
+      </c>
+      <c r="X34">
+        <v>90.2</v>
+      </c>
+      <c r="AH34">
+        <v>13.9</v>
+      </c>
+      <c r="AI34">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
+      <c r="A35">
+        <v>17</v>
+      </c>
+      <c r="B35" s="11">
+        <v>99.2</v>
+      </c>
+      <c r="L35">
+        <v>17</v>
+      </c>
+      <c r="M35">
+        <v>82.5</v>
+      </c>
+      <c r="W35">
+        <v>17</v>
+      </c>
+      <c r="X35">
+        <v>83.2</v>
+      </c>
+      <c r="AH35">
+        <v>17</v>
+      </c>
+      <c r="AI35">
+        <v>51.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D35DC0-CAB2-F54B-9D34-7917EBC9AE3B}">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
@@ -12649,7 +14313,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13658,7 +15322,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14667,7 +16331,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15675,8 +17339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454155FE-B480-DE4D-9BDC-348851C8BAD2}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17163,8 +18827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0419F9-B8DB-7C42-A879-209FEFA673DC}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
